--- a/Diagrams/Sprint 5/Burnout Chart Sprint 5.xlsx
+++ b/Diagrams/Sprint 5/Burnout Chart Sprint 5.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Eng\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\StockManager\Diagrams\Sprint 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
     <definedName name="ColumnTitle1">Data[[#Headers],[Date]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'MANUFACTURING OUTPUT'!$3:$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -212,7 +212,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -254,7 +254,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -367,9 +366,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -447,7 +445,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-01AB-496F-ACDD-F58747B8C0B7}"/>
             </c:ext>
@@ -1179,7 +1177,7 @@
         <xdr:cNvPr id="2" name="Chart 1" descr="Column chart showing date and number of components completed. Sort the Date column to see dates in Ascending or Descending order">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1460,7 +1458,7 @@
   </sheetPr>
   <dimension ref="B1:C27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
@@ -1555,7 +1553,7 @@
     <row r="11" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <f ca="1">TODAY()+7</f>
-        <v>43077</v>
+        <v>43078</v>
       </c>
       <c r="C11" s="5">
         <v>25</v>
@@ -1564,7 +1562,7 @@
     <row r="12" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <f ca="1">TODAY()+8</f>
-        <v>43078</v>
+        <v>43079</v>
       </c>
       <c r="C12" s="5">
         <v>73</v>
@@ -1573,7 +1571,7 @@
     <row r="13" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <f ca="1">TODAY()+9</f>
-        <v>43079</v>
+        <v>43080</v>
       </c>
       <c r="C13" s="5">
         <v>40</v>
@@ -1582,7 +1580,7 @@
     <row r="14" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <f ca="1">TODAY()+10</f>
-        <v>43080</v>
+        <v>43081</v>
       </c>
       <c r="C14" s="5">
         <v>57</v>
@@ -1591,7 +1589,7 @@
     <row r="15" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <f ca="1">TODAY()+11</f>
-        <v>43081</v>
+        <v>43082</v>
       </c>
       <c r="C15" s="5">
         <v>64</v>
@@ -1600,7 +1598,7 @@
     <row r="16" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <f ca="1">TODAY()+12</f>
-        <v>43082</v>
+        <v>43083</v>
       </c>
       <c r="C16" s="5">
         <v>48</v>
@@ -1609,7 +1607,7 @@
     <row r="17" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <f ca="1">TODAY()+13</f>
-        <v>43083</v>
+        <v>43084</v>
       </c>
       <c r="C17" s="5">
         <v>54</v>
@@ -1618,7 +1616,7 @@
     <row r="18" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <f ca="1">TODAY()+14</f>
-        <v>43084</v>
+        <v>43085</v>
       </c>
       <c r="C18" s="5">
         <v>42</v>
@@ -1627,7 +1625,7 @@
     <row r="19" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <f ca="1">TODAY()+15</f>
-        <v>43085</v>
+        <v>43086</v>
       </c>
       <c r="C19" s="5">
         <v>31</v>
@@ -1636,7 +1634,7 @@
     <row r="20" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <f ca="1">TODAY()+16</f>
-        <v>43086</v>
+        <v>43087</v>
       </c>
       <c r="C20" s="5">
         <v>62</v>
@@ -1645,7 +1643,7 @@
     <row r="21" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <f ca="1">TODAY()+17</f>
-        <v>43087</v>
+        <v>43088</v>
       </c>
       <c r="C21" s="5">
         <v>53</v>
@@ -1654,7 +1652,7 @@
     <row r="22" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <f ca="1">TODAY()+18</f>
-        <v>43088</v>
+        <v>43089</v>
       </c>
       <c r="C22" s="5">
         <v>72</v>
@@ -1663,7 +1661,7 @@
     <row r="23" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <f ca="1">TODAY()+19</f>
-        <v>43089</v>
+        <v>43090</v>
       </c>
       <c r="C23" s="5">
         <v>69</v>
@@ -1672,7 +1670,7 @@
     <row r="24" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <f ca="1">TODAY()+20</f>
-        <v>43090</v>
+        <v>43091</v>
       </c>
       <c r="C24" s="5">
         <v>58</v>
@@ -1681,7 +1679,7 @@
     <row r="25" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <f ca="1">TODAY()+21</f>
-        <v>43091</v>
+        <v>43092</v>
       </c>
       <c r="C25" s="5">
         <v>71</v>
@@ -1690,7 +1688,7 @@
     <row r="26" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <f ca="1">TODAY()+22</f>
-        <v>43092</v>
+        <v>43093</v>
       </c>
       <c r="C26" s="5">
         <v>60</v>
@@ -1699,7 +1697,7 @@
     <row r="27" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <f ca="1">TODAY()+23</f>
-        <v>43093</v>
+        <v>43094</v>
       </c>
       <c r="C27" s="5">
         <v>64</v>

--- a/Diagrams/Sprint 5/Burnout Chart Sprint 5.xlsx
+++ b/Diagrams/Sprint 5/Burnout Chart Sprint 5.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\StockManager\Diagrams\Sprint 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="MANUFACTURING OUTPUT" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="ColumnTitle1">Data[[#Headers],[Date]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'MANUFACTURING OUTPUT'!$3:$3</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -212,7 +212,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -249,11 +249,12 @@
               <a:rPr lang="en-US">
                 <a:latin typeface="+mj-lt"/>
               </a:rPr>
-              <a:t>Burnout Chart - Total Hours for Sprint 5</a:t>
+              <a:t>Burndown Chart - Total Hours for Sprint 5</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -366,8 +367,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -445,7 +447,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-01AB-496F-ACDD-F58747B8C0B7}"/>
             </c:ext>
@@ -461,11 +463,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="302471376"/>
-        <c:axId val="302471768"/>
+        <c:axId val="359902448"/>
+        <c:axId val="359905976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="302471376"/>
+        <c:axId val="359902448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -503,7 +505,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302471768"/>
+        <c:crossAx val="359905976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -511,7 +513,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="302471768"/>
+        <c:axId val="359905976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -521,7 +523,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="302471376"/>
+        <c:crossAx val="359902448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1177,7 +1179,7 @@
         <xdr:cNvPr id="2" name="Chart 1" descr="Column chart showing date and number of components completed. Sort the Date column to see dates in Ascending or Descending order">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1458,7 +1460,7 @@
   </sheetPr>
   <dimension ref="B1:C27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
@@ -1553,7 +1555,7 @@
     <row r="11" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <f ca="1">TODAY()+7</f>
-        <v>43078</v>
+        <v>43086</v>
       </c>
       <c r="C11" s="5">
         <v>25</v>
@@ -1562,7 +1564,7 @@
     <row r="12" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <f ca="1">TODAY()+8</f>
-        <v>43079</v>
+        <v>43087</v>
       </c>
       <c r="C12" s="5">
         <v>73</v>
@@ -1571,7 +1573,7 @@
     <row r="13" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <f ca="1">TODAY()+9</f>
-        <v>43080</v>
+        <v>43088</v>
       </c>
       <c r="C13" s="5">
         <v>40</v>
@@ -1580,7 +1582,7 @@
     <row r="14" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <f ca="1">TODAY()+10</f>
-        <v>43081</v>
+        <v>43089</v>
       </c>
       <c r="C14" s="5">
         <v>57</v>
@@ -1589,7 +1591,7 @@
     <row r="15" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <f ca="1">TODAY()+11</f>
-        <v>43082</v>
+        <v>43090</v>
       </c>
       <c r="C15" s="5">
         <v>64</v>
@@ -1598,7 +1600,7 @@
     <row r="16" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <f ca="1">TODAY()+12</f>
-        <v>43083</v>
+        <v>43091</v>
       </c>
       <c r="C16" s="5">
         <v>48</v>
@@ -1607,7 +1609,7 @@
     <row r="17" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <f ca="1">TODAY()+13</f>
-        <v>43084</v>
+        <v>43092</v>
       </c>
       <c r="C17" s="5">
         <v>54</v>
@@ -1616,7 +1618,7 @@
     <row r="18" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <f ca="1">TODAY()+14</f>
-        <v>43085</v>
+        <v>43093</v>
       </c>
       <c r="C18" s="5">
         <v>42</v>
@@ -1625,7 +1627,7 @@
     <row r="19" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <f ca="1">TODAY()+15</f>
-        <v>43086</v>
+        <v>43094</v>
       </c>
       <c r="C19" s="5">
         <v>31</v>
@@ -1634,7 +1636,7 @@
     <row r="20" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <f ca="1">TODAY()+16</f>
-        <v>43087</v>
+        <v>43095</v>
       </c>
       <c r="C20" s="5">
         <v>62</v>
@@ -1643,7 +1645,7 @@
     <row r="21" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <f ca="1">TODAY()+17</f>
-        <v>43088</v>
+        <v>43096</v>
       </c>
       <c r="C21" s="5">
         <v>53</v>
@@ -1652,7 +1654,7 @@
     <row r="22" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <f ca="1">TODAY()+18</f>
-        <v>43089</v>
+        <v>43097</v>
       </c>
       <c r="C22" s="5">
         <v>72</v>
@@ -1661,7 +1663,7 @@
     <row r="23" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <f ca="1">TODAY()+19</f>
-        <v>43090</v>
+        <v>43098</v>
       </c>
       <c r="C23" s="5">
         <v>69</v>
@@ -1670,7 +1672,7 @@
     <row r="24" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <f ca="1">TODAY()+20</f>
-        <v>43091</v>
+        <v>43099</v>
       </c>
       <c r="C24" s="5">
         <v>58</v>
@@ -1679,7 +1681,7 @@
     <row r="25" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <f ca="1">TODAY()+21</f>
-        <v>43092</v>
+        <v>43100</v>
       </c>
       <c r="C25" s="5">
         <v>71</v>
@@ -1688,7 +1690,7 @@
     <row r="26" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <f ca="1">TODAY()+22</f>
-        <v>43093</v>
+        <v>43101</v>
       </c>
       <c r="C26" s="5">
         <v>60</v>
@@ -1697,7 +1699,7 @@
     <row r="27" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <f ca="1">TODAY()+23</f>
-        <v>43094</v>
+        <v>43102</v>
       </c>
       <c r="C27" s="5">
         <v>64</v>
